--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,168 +40,183 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>complaints</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>no</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>risk</t>
   </si>
   <si>
     <t>vulnerable</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -211,202 +226,208 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>create</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>yes</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -764,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -883,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -933,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9473684210526315</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9285714285714286</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>0.9375</v>
@@ -1033,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9130434782608695</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8918918918918919</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9302325581395349</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.88</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1201,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.9216710182767625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1225,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1251,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1283,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8666666666666667</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1351,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.863013698630137</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1401,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.8984375</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1425,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1433,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8529411764705882</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1483,49 +1504,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8421052631578947</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>0.8873239436619719</v>
+      </c>
+      <c r="L16">
+        <v>126</v>
+      </c>
+      <c r="M16">
+        <v>126</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>16</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16">
-        <v>0.8943661971830986</v>
-      </c>
-      <c r="L16">
-        <v>127</v>
-      </c>
-      <c r="M16">
-        <v>127</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1533,7 +1554,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -1551,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1583,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1604,16 +1625,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8928571428571429</v>
+        <v>0.8828125</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1625,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1633,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7692307692307693</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>0.88125</v>
@@ -1683,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7391304347826086</v>
+        <v>0.76</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,16 +1725,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1725,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1733,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7391304347826086</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1751,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K21">
         <v>0.8679245283018868</v>
@@ -1783,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1801,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.8666666666666667</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1825,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1833,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1851,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1875,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1883,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7037037037037037</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1901,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1925,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1933,13 +1954,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1951,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K25">
         <v>0.8235294117647058</v>
@@ -1986,10 +2007,10 @@
         <v>0.7</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2001,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2025,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2033,13 +2054,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6957364341085271</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2051,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.7948717948717948</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2075,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2083,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6949152542372882</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2101,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2125,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2133,37 +2154,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6923076923076923</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>18</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2175,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2183,13 +2204,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2201,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2225,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2254,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2275,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2283,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C32">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2301,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L32">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2325,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2333,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6666666666666666</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2351,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K33">
         <v>0.75</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2375,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2404,16 +2425,16 @@
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K34">
         <v>0.75</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2425,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2433,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6308724832214765</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C35">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2451,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K35">
-        <v>0.7448979591836735</v>
+        <v>0.75</v>
       </c>
       <c r="L35">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2472,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2483,13 +2504,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5945945945945946</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2501,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>0.74</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2533,13 +2554,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.59375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2551,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2575,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2583,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5888888888888889</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C38">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2601,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.7238493723849372</v>
+        <v>0.74</v>
       </c>
       <c r="L38">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2625,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2654,16 +2675,16 @@
         <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2675,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2683,13 +2704,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2701,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.7083333333333334</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2725,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2733,13 +2754,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5384615384615384</v>
+        <v>0.575</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2751,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.7021276595744681</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L41">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2775,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2783,13 +2804,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5185185185185185</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2801,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.6956521739130435</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2825,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2833,13 +2854,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5161290322580645</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2851,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2875,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2883,13 +2904,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.509090909090909</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2901,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2925,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2936,10 +2957,10 @@
         <v>0.5</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2951,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.6571428571428571</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2975,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2983,13 +3004,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4909090909090909</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3001,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.6571428571428571</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3025,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3033,13 +3054,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4814814814814815</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3051,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.651685393258427</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3075,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3083,13 +3104,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.48</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3101,19 +3122,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.6461538461538462</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3125,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3133,13 +3154,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4516129032258064</v>
+        <v>0.325</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3151,19 +3172,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3175,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3183,13 +3204,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4107142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3201,31 +3222,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>15</v>
-      </c>
-      <c r="M50">
-        <v>15</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3233,13 +3254,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.375</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3251,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.6222222222222222</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3275,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3283,13 +3304,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3301,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K52">
-        <v>0.6153846153846154</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3325,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3333,13 +3354,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2936507936507937</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C53">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3351,19 +3372,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.6129032258064516</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3383,13 +3404,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.25</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3401,19 +3422,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>0.6078431372549019</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3425,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3433,13 +3454,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1474530831099196</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3451,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3475,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3483,37 +3504,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.006310475389145982</v>
+        <v>0.01013250194855807</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="F56">
-        <v>0.88</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>2362</v>
+        <v>1270</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K56">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3529,17 +3550,41 @@
       </c>
     </row>
     <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="C57">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>0.08</v>
+      </c>
+      <c r="F57">
+        <v>0.92</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3082</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K57">
-        <v>0.5068493150684932</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L57">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3551,21 +3596,45 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.005466778805719092</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2365</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3577,15 +3646,39 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.004402224281742354</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>0.39</v>
+      </c>
+      <c r="F59">
+        <v>0.61</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>4297</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K59">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L59">
         <v>13</v>
@@ -3603,21 +3696,45 @@
         <v>0</v>
       </c>
       <c r="Q59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.003882741215298</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="E60">
+        <v>0.41</v>
+      </c>
+      <c r="F60">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>5131</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+      <c r="L60">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K60">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="L60">
-        <v>15</v>
-      </c>
       <c r="M60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3629,21 +3746,45 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.002811244979919679</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0.53</v>
+      </c>
+      <c r="F61">
+        <v>0.47</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>4966</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K61">
-        <v>0.453125</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3655,21 +3796,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.4230769230769231</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L62">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3681,21 +3822,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.3823529411764706</v>
+        <v>0.4375</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3707,21 +3848,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.3050847457627119</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3733,21 +3874,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <v>0.2456140350877193</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3759,47 +3900,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>0.1588785046728972</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K67">
-        <v>0.1129032258064516</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3811,21 +3952,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K68">
-        <v>0.01166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3837,59 +3978,163 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1186</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>0.004066312167657179</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M69">
         <v>17</v>
       </c>
       <c r="N69">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>3184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K70">
-        <v>0.003811434302908726</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M70">
+        <v>14</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71">
+        <v>0.01751459549624687</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>22</v>
+      </c>
+      <c r="N71">
+        <v>0.95</v>
+      </c>
+      <c r="O71">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72">
+        <v>0.005251312828207052</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>21</v>
+      </c>
+      <c r="N72">
+        <v>0.67</v>
+      </c>
+      <c r="O72">
+        <v>0.33</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K73">
+        <v>0.003211561621838619</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73">
         <v>30</v>
       </c>
-      <c r="N70">
-        <v>0.63</v>
-      </c>
-      <c r="O70">
-        <v>0.37</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
+      <c r="N73">
+        <v>0.53</v>
+      </c>
+      <c r="O73">
+        <v>0.47</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
         <v>4966</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74">
+        <v>0.002721088435374149</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>34</v>
+      </c>
+      <c r="N74">
+        <v>0.41</v>
+      </c>
+      <c r="O74">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
